--- a/src/main/resources/data/queryFilterByFilterPipelineId.xlsx
+++ b/src/main/resources/data/queryFilterByFilterPipelineId.xlsx
@@ -55,7 +55,7 @@
     <t>参数错误</t>
   </si>
   <si>
-    <t>图分析视图-graphFilterPipelineId-缺少入参graphId</t>
+    <t>图分析视图-queryFilterByFilterPipelineId-缺少入参graphId</t>
   </si>
   <si>
     <t>{"projectId":1426,"graphFilterPipelineId":981}</t>
@@ -70,22 +70,22 @@
     <t>图分析视图-queryFilterByFilterPipelineId-projectid为空</t>
   </si>
   <si>
-    <t>{"projectId":null,"graphId":2847,"queryFilterByFilterPipelineId":981}</t>
+    <t>{"projectId":null,"graphId":2847,"graphFilterPipelineId":981}</t>
   </si>
   <si>
     <t>图分析视图-queryFilterByFilterPipelineId-graphId为空</t>
   </si>
   <si>
-    <t>{"projectId":1426,"graphId":null,"queryFilterByFilterPipelineId":981}</t>
-  </si>
-  <si>
-    <t>图分析视图-queryFilterByFilterPipelineId-queryFilterByFilterPipelineId为空</t>
+    <t>{"projectId":1426,"graphId":null,"graphFilterPipelineId":981}</t>
+  </si>
+  <si>
+    <t>图分析视图-queryFilterByFilterPipelineId-graphFilterPipelineId为空</t>
   </si>
   <si>
     <t>{"projectId":1426,"graphId":2847,"graphFilterPipelineId":null}</t>
   </si>
   <si>
-    <t>图分析视图-queryFilterByFilterPipelineId-跨账号不可重做</t>
+    <t>图分析视图-queryFilterByFilterPipelineId-跨账号不可操作</t>
   </si>
   <si>
     <t>{"projectId":1334,"graphId":2497,"graphFilterPipelineId":921}</t>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -156,16 +156,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +170,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,9 +209,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,31 +246,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,31 +286,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,28 +306,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -328,43 +328,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,73 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,61 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +600,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -630,11 +639,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,21 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -679,168 +694,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2059,7 +2059,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>

--- a/src/main/resources/data/queryFilterByFilterPipelineId.xlsx
+++ b/src/main/resources/data/queryFilterByFilterPipelineId.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>title</t>
   </si>
@@ -103,13 +103,16 @@
     <t>{"projectId":1426,"graphId":2762,"graphFilterPipelineId":981}</t>
   </si>
   <si>
+    <t>该视图不属于此项目</t>
+  </si>
+  <si>
+    <t>图分析视图-queryFilterByFilterPipelineId-项目下不存在的标签不能操作</t>
+  </si>
+  <si>
+    <t>{"projectId":1426,"graphId":2772,"graphFilterPipelineId":981}</t>
+  </si>
+  <si>
     <t>无权操作</t>
-  </si>
-  <si>
-    <t>图分析视图-queryFilterByFilterPipelineId-项目下不存在的标签不能操作</t>
-  </si>
-  <si>
-    <t>{"projectId":1426,"graphId":2772,"graphFilterPipelineId":981}</t>
   </si>
   <si>
     <t>图分析视图-queryFilterByFilterPipelineId-不存在的过滤器流程id</t>
@@ -123,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -157,13 +160,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -177,19 +173,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,17 +196,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,15 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +265,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -276,25 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,49 +337,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,31 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,91 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,16 +613,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,21 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -669,28 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,148 +702,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2059,7 +2062,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -2246,7 +2249,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="8">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
@@ -2267,7 +2270,7 @@
         <v>90009</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -2276,16 +2279,16 @@
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8">
         <v>90009</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
